--- a/ig/conditionlist/StructureDefinition-medcom-conditionlist-documentreference.xlsx
+++ b/ig/conditionlist/StructureDefinition-medcom-conditionlist-documentreference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5536" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5536" uniqueCount="700">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T10:26:02+01:00</t>
+    <t>2025-05-12T13:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -540,13 +540,16 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-homeCommunityId-VS</t>
+    <t>http://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-homeCommunityId-VS</t>
   </si>
   <si>
     <t>DocumentReference.extension.value[x]:valueString</t>
   </si>
   <si>
     <t>valueString</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>DocumentReference.extension:homeCommunityid</t>
@@ -938,7 +941,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>https://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-dk-ihe-plr-typecode-VS</t>
+    <t>http://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-dk-ihe-plr-typecode-VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1803,7 +1806,7 @@
     <t>Note that while IHE mostly issues URNs for format types, not all documents can be identified by a URI.</t>
   </si>
   <si>
-    <t>https://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-plr-formatcode-VS</t>
+    <t>http://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-plr-formatcode-VS</t>
   </si>
   <si>
     <t>Composition.meta.profile</t>
@@ -2498,15 +2501,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="59.359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.48828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2517,29 +2520,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="90.01953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="43.2890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.69921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.96484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.5859375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="82.05078125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="157.95703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="72.20703125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="139.26953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4304,7 +4307,7 @@
         <v>19</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>19</v>
@@ -4381,13 +4384,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>19</v>
@@ -4406,16 +4409,16 @@
         <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4475,7 +4478,7 @@
         <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>143</v>
@@ -4504,13 +4507,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>19</v>
@@ -4529,16 +4532,16 @@
         <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4598,7 +4601,7 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>143</v>
@@ -4627,14 +4630,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4656,16 +4659,16 @@
         <v>137</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>19</v>
@@ -4714,7 +4717,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4752,10 +4755,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4778,19 +4781,19 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -4839,7 +4842,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4854,33 +4857,33 @@
         <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4998,14 +5001,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -5027,13 +5030,13 @@
         <v>137</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -5121,10 +5124,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5150,16 +5153,16 @@
         <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -5187,10 +5190,10 @@
         <v>167</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>19</v>
@@ -5208,7 +5211,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -5229,7 +5232,7 @@
         <v>19</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>19</v>
@@ -5246,10 +5249,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5272,19 +5275,19 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -5309,13 +5312,13 @@
         <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>19</v>
@@ -5333,7 +5336,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -5354,7 +5357,7 @@
         <v>19</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>19</v>
@@ -5363,7 +5366,7 @@
         <v>19</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>19</v>
@@ -5371,10 +5374,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5400,16 +5403,16 @@
         <v>105</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -5422,7 +5425,7 @@
         <v>19</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>19</v>
@@ -5458,7 +5461,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5479,7 +5482,7 @@
         <v>19</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>19</v>
@@ -5488,7 +5491,7 @@
         <v>19</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AQ24" t="s" s="2">
         <v>19</v>
@@ -5496,10 +5499,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5525,13 +5528,13 @@
         <v>145</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5545,7 +5548,7 @@
         <v>19</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>19</v>
@@ -5581,7 +5584,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5602,7 +5605,7 @@
         <v>19</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>19</v>
@@ -5611,7 +5614,7 @@
         <v>19</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>19</v>
@@ -5619,10 +5622,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5645,13 +5648,13 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5702,7 +5705,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5723,7 +5726,7 @@
         <v>19</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>19</v>
@@ -5732,7 +5735,7 @@
         <v>19</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>19</v>
@@ -5740,10 +5743,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5766,16 +5769,16 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5825,7 +5828,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5846,7 +5849,7 @@
         <v>19</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>19</v>
@@ -5855,7 +5858,7 @@
         <v>19</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>19</v>
@@ -5863,10 +5866,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5889,13 +5892,13 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5946,7 +5949,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5958,36 +5961,36 @@
         <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6105,14 +6108,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -6134,13 +6137,13 @@
         <v>137</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6228,10 +6231,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6257,16 +6260,16 @@
         <v>111</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -6294,10 +6297,10 @@
         <v>167</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>19</v>
@@ -6315,7 +6318,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -6336,7 +6339,7 @@
         <v>19</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>19</v>
@@ -6353,10 +6356,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6379,19 +6382,19 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -6416,13 +6419,13 @@
         <v>19</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>19</v>
@@ -6440,7 +6443,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -6461,7 +6464,7 @@
         <v>19</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>19</v>
@@ -6470,7 +6473,7 @@
         <v>19</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>19</v>
@@ -6478,10 +6481,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6507,16 +6510,16 @@
         <v>105</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -6529,7 +6532,7 @@
         <v>19</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>19</v>
@@ -6565,7 +6568,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6586,7 +6589,7 @@
         <v>19</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>19</v>
@@ -6595,7 +6598,7 @@
         <v>19</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>19</v>
@@ -6603,10 +6606,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6632,13 +6635,13 @@
         <v>145</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6652,7 +6655,7 @@
         <v>19</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>19</v>
@@ -6688,7 +6691,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6709,7 +6712,7 @@
         <v>19</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>19</v>
@@ -6718,7 +6721,7 @@
         <v>19</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>19</v>
@@ -6726,10 +6729,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6752,13 +6755,13 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6809,7 +6812,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6830,7 +6833,7 @@
         <v>19</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>19</v>
@@ -6839,7 +6842,7 @@
         <v>19</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>19</v>
@@ -6847,10 +6850,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6873,16 +6876,16 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6932,7 +6935,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6953,7 +6956,7 @@
         <v>19</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>19</v>
@@ -6962,7 +6965,7 @@
         <v>19</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>19</v>
@@ -6970,10 +6973,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6999,13 +7002,13 @@
         <v>111</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -7034,10 +7037,10 @@
         <v>167</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
@@ -7055,7 +7058,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>91</v>
@@ -7070,33 +7073,33 @@
         <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7122,13 +7125,13 @@
         <v>111</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7157,10 +7160,10 @@
         <v>167</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>19</v>
@@ -7178,7 +7181,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -7196,19 +7199,19 @@
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>19</v>
@@ -7216,10 +7219,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7242,16 +7245,16 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7281,7 +7284,7 @@
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
@@ -7299,7 +7302,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -7314,33 +7317,33 @@
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7458,14 +7461,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7487,13 +7490,13 @@
         <v>137</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7581,10 +7584,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7610,16 +7613,16 @@
         <v>166</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -7668,7 +7671,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7689,7 +7692,7 @@
         <v>19</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>19</v>
@@ -7698,7 +7701,7 @@
         <v>19</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ42" t="s" s="2">
         <v>19</v>
@@ -7706,10 +7709,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7827,14 +7830,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7856,13 +7859,13 @@
         <v>137</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7950,10 +7953,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7979,16 +7982,16 @@
         <v>105</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -8037,7 +8040,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -8058,7 +8061,7 @@
         <v>19</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>19</v>
@@ -8067,7 +8070,7 @@
         <v>19</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>19</v>
@@ -8075,10 +8078,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8104,13 +8107,13 @@
         <v>145</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8160,7 +8163,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -8181,7 +8184,7 @@
         <v>19</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>19</v>
@@ -8190,7 +8193,7 @@
         <v>19</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>19</v>
@@ -8198,10 +8201,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8227,14 +8230,14 @@
         <v>111</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -8283,7 +8286,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -8304,7 +8307,7 @@
         <v>19</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>19</v>
@@ -8313,7 +8316,7 @@
         <v>19</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>19</v>
@@ -8321,10 +8324,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8350,14 +8353,14 @@
         <v>145</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -8406,7 +8409,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -8427,7 +8430,7 @@
         <v>19</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>19</v>
@@ -8436,7 +8439,7 @@
         <v>19</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>19</v>
@@ -8444,10 +8447,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8470,19 +8473,19 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -8531,7 +8534,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8552,7 +8555,7 @@
         <v>19</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>19</v>
@@ -8561,7 +8564,7 @@
         <v>19</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>19</v>
@@ -8569,10 +8572,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8598,16 +8601,16 @@
         <v>145</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -8656,7 +8659,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8677,7 +8680,7 @@
         <v>19</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>19</v>
@@ -8686,7 +8689,7 @@
         <v>19</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>19</v>
@@ -8694,14 +8697,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8720,16 +8723,16 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8755,11 +8758,11 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
@@ -8777,7 +8780,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8795,30 +8798,30 @@
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8936,14 +8939,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8965,13 +8968,13 @@
         <v>137</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -9059,10 +9062,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9088,16 +9091,16 @@
         <v>166</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -9146,7 +9149,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -9167,7 +9170,7 @@
         <v>19</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>19</v>
@@ -9176,7 +9179,7 @@
         <v>19</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>19</v>
@@ -9184,10 +9187,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9305,14 +9308,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9334,13 +9337,13 @@
         <v>137</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9428,10 +9431,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9457,16 +9460,16 @@
         <v>105</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>19</v>
@@ -9515,7 +9518,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9536,7 +9539,7 @@
         <v>19</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>19</v>
@@ -9545,7 +9548,7 @@
         <v>19</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>19</v>
@@ -9553,10 +9556,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9582,13 +9585,13 @@
         <v>145</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9638,7 +9641,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9659,7 +9662,7 @@
         <v>19</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>19</v>
@@ -9668,7 +9671,7 @@
         <v>19</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>19</v>
@@ -9676,10 +9679,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9705,14 +9708,14 @@
         <v>111</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -9761,7 +9764,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9782,7 +9785,7 @@
         <v>19</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>19</v>
@@ -9791,7 +9794,7 @@
         <v>19</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>19</v>
@@ -9799,10 +9802,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9828,14 +9831,14 @@
         <v>145</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -9884,7 +9887,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9905,7 +9908,7 @@
         <v>19</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>19</v>
@@ -9914,7 +9917,7 @@
         <v>19</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>19</v>
@@ -9922,10 +9925,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9948,19 +9951,19 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -10009,7 +10012,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -10030,7 +10033,7 @@
         <v>19</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>19</v>
@@ -10039,7 +10042,7 @@
         <v>19</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>19</v>
@@ -10047,10 +10050,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10076,16 +10079,16 @@
         <v>145</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>19</v>
@@ -10134,7 +10137,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -10155,7 +10158,7 @@
         <v>19</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>19</v>
@@ -10164,7 +10167,7 @@
         <v>19</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>19</v>
@@ -10172,10 +10175,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10198,13 +10201,13 @@
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10255,7 +10258,7 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -10270,37 +10273,37 @@
         <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10319,16 +10322,16 @@
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10378,7 +10381,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -10393,19 +10396,19 @@
         <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>19</v>
@@ -10416,10 +10419,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10442,16 +10445,16 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10489,17 +10492,17 @@
         <v>19</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -10514,36 +10517,36 @@
         <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AQ65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>19</v>
@@ -10565,16 +10568,16 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10624,7 +10627,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10639,36 +10642,36 @@
         <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AQ66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>19</v>
@@ -10690,16 +10693,16 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10749,7 +10752,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10764,33 +10767,33 @@
         <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10813,16 +10816,16 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10872,7 +10875,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10887,33 +10890,33 @@
         <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AQ68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10936,16 +10939,16 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10995,7 +10998,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -11010,13 +11013,13 @@
         <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>19</v>
@@ -11033,10 +11036,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11059,16 +11062,16 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11118,7 +11121,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -11136,10 +11139,10 @@
         <v>19</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>19</v>
@@ -11151,15 +11154,15 @@
         <v>19</v>
       </c>
       <c r="AQ70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11277,14 +11280,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -11306,13 +11309,13 @@
         <v>137</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11400,14 +11403,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11429,16 +11432,16 @@
         <v>137</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>19</v>
@@ -11487,7 +11490,7 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -11525,10 +11528,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11554,13 +11557,13 @@
         <v>111</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11589,10 +11592,10 @@
         <v>167</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>19</v>
@@ -11610,7 +11613,7 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>91</v>
@@ -11628,10 +11631,10 @@
         <v>19</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>19</v>
@@ -11643,15 +11646,15 @@
         <v>19</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11674,13 +11677,13 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11731,7 +11734,7 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>91</v>
@@ -11749,10 +11752,10 @@
         <v>19</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>19</v>
@@ -11764,15 +11767,15 @@
         <v>19</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11798,16 +11801,16 @@
         <v>145</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>19</v>
@@ -11856,7 +11859,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11877,7 +11880,7 @@
         <v>19</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>19</v>
@@ -11886,18 +11889,18 @@
         <v>19</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AQ76" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11920,19 +11923,19 @@
         <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>19</v>
@@ -11957,13 +11960,13 @@
         <v>19</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>19</v>
@@ -11981,7 +11984,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11999,30 +12002,30 @@
         <v>19</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AQ77" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12045,13 +12048,13 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -12102,7 +12105,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>91</v>
@@ -12120,10 +12123,10 @@
         <v>19</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>19</v>
@@ -12140,10 +12143,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12261,14 +12264,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12290,13 +12293,13 @@
         <v>137</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12384,14 +12387,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12413,16 +12416,16 @@
         <v>137</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>19</v>
@@ -12471,7 +12474,7 @@
         <v>19</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -12509,10 +12512,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12535,13 +12538,13 @@
         <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12592,7 +12595,7 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>91</v>
@@ -12610,30 +12613,30 @@
         <v>19</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AQ82" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12751,14 +12754,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12780,13 +12783,13 @@
         <v>137</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12874,10 +12877,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12903,14 +12906,14 @@
         <v>111</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>19</v>
@@ -12923,7 +12926,7 @@
         <v>19</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>19</v>
@@ -12939,7 +12942,7 @@
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>19</v>
@@ -12957,7 +12960,7 @@
         <v>19</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12978,7 +12981,7 @@
         <v>19</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>19</v>
@@ -12987,7 +12990,7 @@
         <v>19</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AQ85" t="s" s="2">
         <v>19</v>
@@ -12995,10 +12998,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13024,14 +13027,14 @@
         <v>111</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>19</v>
@@ -13044,7 +13047,7 @@
         <v>19</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>19</v>
@@ -13056,11 +13059,11 @@
         <v>19</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>19</v>
@@ -13078,7 +13081,7 @@
         <v>19</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -13099,7 +13102,7 @@
         <v>19</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>19</v>
@@ -13116,10 +13119,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13142,19 +13145,19 @@
         <v>19</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>19</v>
@@ -13203,7 +13206,7 @@
         <v>19</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -13224,7 +13227,7 @@
         <v>19</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>19</v>
@@ -13233,7 +13236,7 @@
         <v>19</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>19</v>
@@ -13241,10 +13244,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13267,19 +13270,19 @@
         <v>92</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>19</v>
@@ -13292,7 +13295,7 @@
         <v>19</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>19</v>
@@ -13328,7 +13331,7 @@
         <v>19</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -13349,7 +13352,7 @@
         <v>19</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>19</v>
@@ -13358,7 +13361,7 @@
         <v>19</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AQ88" t="s" s="2">
         <v>19</v>
@@ -13366,10 +13369,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13392,19 +13395,19 @@
         <v>92</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>19</v>
@@ -13453,7 +13456,7 @@
         <v>19</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -13474,7 +13477,7 @@
         <v>19</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>19</v>
@@ -13491,10 +13494,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13517,19 +13520,19 @@
         <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>19</v>
@@ -13578,7 +13581,7 @@
         <v>19</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -13599,7 +13602,7 @@
         <v>19</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>19</v>
@@ -13616,10 +13619,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13645,14 +13648,14 @@
         <v>145</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>19</v>
@@ -13665,7 +13668,7 @@
         <v>19</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>19</v>
@@ -13701,7 +13704,7 @@
         <v>19</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13722,7 +13725,7 @@
         <v>19</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>19</v>
@@ -13739,10 +13742,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13765,17 +13768,17 @@
         <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>19</v>
@@ -13824,7 +13827,7 @@
         <v>19</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13845,7 +13848,7 @@
         <v>19</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>19</v>
@@ -13862,10 +13865,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13891,13 +13894,13 @@
         <v>166</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13927,7 +13930,7 @@
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>19</v>
@@ -13945,7 +13948,7 @@
         <v>19</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13963,13 +13966,13 @@
         <v>19</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>19</v>
@@ -13978,15 +13981,15 @@
         <v>19</v>
       </c>
       <c r="AQ93" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14009,16 +14012,16 @@
         <v>92</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -14068,7 +14071,7 @@
         <v>19</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -14089,7 +14092,7 @@
         <v>19</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>19</v>
@@ -14106,10 +14109,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14227,14 +14230,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -14256,13 +14259,13 @@
         <v>137</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -14350,14 +14353,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14379,16 +14382,16 @@
         <v>137</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>19</v>
@@ -14437,7 +14440,7 @@
         <v>19</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -14475,10 +14478,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14501,13 +14504,13 @@
         <v>19</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14558,7 +14561,7 @@
         <v>19</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -14573,19 +14576,19 @@
         <v>103</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>19</v>
@@ -14596,10 +14599,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14622,16 +14625,16 @@
         <v>19</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14657,13 +14660,13 @@
         <v>19</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>19</v>
@@ -14681,7 +14684,7 @@
         <v>19</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14699,10 +14702,10 @@
         <v>19</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>19</v>
@@ -14714,15 +14717,15 @@
         <v>19</v>
       </c>
       <c r="AQ99" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14840,14 +14843,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14869,13 +14872,13 @@
         <v>137</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14963,10 +14966,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14992,16 +14995,16 @@
         <v>166</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>19</v>
@@ -15050,7 +15053,7 @@
         <v>19</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -15071,7 +15074,7 @@
         <v>19</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>19</v>
@@ -15080,7 +15083,7 @@
         <v>19</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ102" t="s" s="2">
         <v>19</v>
@@ -15088,10 +15091,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15209,14 +15212,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15238,13 +15241,13 @@
         <v>137</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15332,10 +15335,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15361,16 +15364,16 @@
         <v>105</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>19</v>
@@ -15419,7 +15422,7 @@
         <v>19</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -15440,7 +15443,7 @@
         <v>19</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>19</v>
@@ -15449,7 +15452,7 @@
         <v>19</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ105" t="s" s="2">
         <v>19</v>
@@ -15457,10 +15460,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15486,13 +15489,13 @@
         <v>145</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15542,7 +15545,7 @@
         <v>19</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -15563,7 +15566,7 @@
         <v>19</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>19</v>
@@ -15572,7 +15575,7 @@
         <v>19</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ106" t="s" s="2">
         <v>19</v>
@@ -15580,10 +15583,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15609,14 +15612,14 @@
         <v>111</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>19</v>
@@ -15665,7 +15668,7 @@
         <v>19</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -15686,7 +15689,7 @@
         <v>19</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>19</v>
@@ -15695,7 +15698,7 @@
         <v>19</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AQ107" t="s" s="2">
         <v>19</v>
@@ -15703,10 +15706,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15732,14 +15735,14 @@
         <v>145</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>19</v>
@@ -15788,7 +15791,7 @@
         <v>19</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -15809,7 +15812,7 @@
         <v>19</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>19</v>
@@ -15818,7 +15821,7 @@
         <v>19</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AQ108" t="s" s="2">
         <v>19</v>
@@ -15826,10 +15829,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15852,19 +15855,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>19</v>
@@ -15913,7 +15916,7 @@
         <v>19</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15934,7 +15937,7 @@
         <v>19</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>19</v>
@@ -15943,7 +15946,7 @@
         <v>19</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ109" t="s" s="2">
         <v>19</v>
@@ -15951,10 +15954,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15980,16 +15983,16 @@
         <v>145</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>19</v>
@@ -16038,7 +16041,7 @@
         <v>19</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -16059,7 +16062,7 @@
         <v>19</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>19</v>
@@ -16068,7 +16071,7 @@
         <v>19</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ110" t="s" s="2">
         <v>19</v>
@@ -16076,10 +16079,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16102,13 +16105,13 @@
         <v>92</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -16159,7 +16162,7 @@
         <v>19</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -16177,13 +16180,13 @@
         <v>19</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>19</v>
@@ -16192,15 +16195,15 @@
         <v>19</v>
       </c>
       <c r="AQ111" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16318,14 +16321,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16347,13 +16350,13 @@
         <v>137</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16441,10 +16444,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16467,16 +16470,16 @@
         <v>92</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16526,7 +16529,7 @@
         <v>19</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -16535,7 +16538,7 @@
         <v>91</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>103</v>
@@ -16547,7 +16550,7 @@
         <v>19</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>19</v>
@@ -16556,7 +16559,7 @@
         <v>19</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AQ114" t="s" s="2">
         <v>19</v>
@@ -16564,10 +16567,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16590,23 +16593,23 @@
         <v>92</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q115" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="R115" t="s" s="2">
         <v>19</v>
@@ -16651,7 +16654,7 @@
         <v>19</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -16660,7 +16663,7 @@
         <v>91</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>103</v>
@@ -16672,7 +16675,7 @@
         <v>19</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>19</v>
@@ -16681,7 +16684,7 @@
         <v>19</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AQ115" t="s" s="2">
         <v>19</v>
@@ -16689,10 +16692,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16715,13 +16718,13 @@
         <v>19</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -16748,13 +16751,13 @@
         <v>19</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>19</v>
@@ -16772,7 +16775,7 @@
         <v>19</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -16790,13 +16793,13 @@
         <v>19</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>19</v>
@@ -16805,15 +16808,15 @@
         <v>19</v>
       </c>
       <c r="AQ116" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16931,14 +16934,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16960,13 +16963,13 @@
         <v>137</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -17054,10 +17057,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17083,16 +17086,16 @@
         <v>166</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>19</v>
@@ -17141,7 +17144,7 @@
         <v>19</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -17162,7 +17165,7 @@
         <v>19</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>19</v>
@@ -17171,7 +17174,7 @@
         <v>19</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ119" t="s" s="2">
         <v>19</v>
@@ -17179,10 +17182,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17300,14 +17303,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -17329,13 +17332,13 @@
         <v>137</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17423,10 +17426,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17452,16 +17455,16 @@
         <v>105</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>19</v>
@@ -17486,11 +17489,11 @@
         <v>19</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y122" s="2"/>
       <c r="Z122" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>19</v>
@@ -17508,7 +17511,7 @@
         <v>19</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -17529,7 +17532,7 @@
         <v>19</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>19</v>
@@ -17538,7 +17541,7 @@
         <v>19</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ122" t="s" s="2">
         <v>19</v>
@@ -17546,10 +17549,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17575,13 +17578,13 @@
         <v>145</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17631,7 +17634,7 @@
         <v>19</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -17652,7 +17655,7 @@
         <v>19</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>19</v>
@@ -17661,7 +17664,7 @@
         <v>19</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ123" t="s" s="2">
         <v>19</v>
@@ -17669,10 +17672,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17698,14 +17701,14 @@
         <v>111</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>19</v>
@@ -17754,7 +17757,7 @@
         <v>19</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -17775,7 +17778,7 @@
         <v>19</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>19</v>
@@ -17784,7 +17787,7 @@
         <v>19</v>
       </c>
       <c r="AP124" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AQ124" t="s" s="2">
         <v>19</v>
@@ -17792,10 +17795,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17821,14 +17824,14 @@
         <v>145</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>19</v>
@@ -17877,7 +17880,7 @@
         <v>19</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -17898,7 +17901,7 @@
         <v>19</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>19</v>
@@ -17907,7 +17910,7 @@
         <v>19</v>
       </c>
       <c r="AP125" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AQ125" t="s" s="2">
         <v>19</v>
@@ -17915,10 +17918,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17941,19 +17944,19 @@
         <v>92</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>19</v>
@@ -18002,7 +18005,7 @@
         <v>19</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -18023,7 +18026,7 @@
         <v>19</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>19</v>
@@ -18032,7 +18035,7 @@
         <v>19</v>
       </c>
       <c r="AP126" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ126" t="s" s="2">
         <v>19</v>
@@ -18040,10 +18043,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18069,16 +18072,16 @@
         <v>145</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>19</v>
@@ -18127,7 +18130,7 @@
         <v>19</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
@@ -18148,7 +18151,7 @@
         <v>19</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>19</v>
@@ -18157,7 +18160,7 @@
         <v>19</v>
       </c>
       <c r="AP127" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ127" t="s" s="2">
         <v>19</v>
@@ -18165,10 +18168,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18191,19 +18194,19 @@
         <v>19</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>19</v>
@@ -18228,13 +18231,13 @@
         <v>19</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>19</v>
@@ -18252,7 +18255,7 @@
         <v>19</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -18270,14 +18273,14 @@
         <v>19</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AM128" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AN128" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AN128" t="s" s="2">
-        <v>649</v>
-      </c>
       <c r="AO128" t="s" s="2">
         <v>19</v>
       </c>
@@ -18285,15 +18288,15 @@
         <v>19</v>
       </c>
       <c r="AQ128" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18411,14 +18414,14 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -18440,13 +18443,13 @@
         <v>137</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -18534,10 +18537,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18563,16 +18566,16 @@
         <v>166</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>19</v>
@@ -18621,7 +18624,7 @@
         <v>19</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -18642,7 +18645,7 @@
         <v>19</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>19</v>
@@ -18651,7 +18654,7 @@
         <v>19</v>
       </c>
       <c r="AP131" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ131" t="s" s="2">
         <v>19</v>
@@ -18659,10 +18662,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18780,14 +18783,14 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -18809,13 +18812,13 @@
         <v>137</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18903,10 +18906,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18932,16 +18935,16 @@
         <v>105</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>19</v>
@@ -18966,11 +18969,11 @@
         <v>19</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y134" s="2"/>
       <c r="Z134" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>19</v>
@@ -18988,7 +18991,7 @@
         <v>19</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -19009,7 +19012,7 @@
         <v>19</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>19</v>
@@ -19018,7 +19021,7 @@
         <v>19</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ134" t="s" s="2">
         <v>19</v>
@@ -19026,10 +19029,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19055,13 +19058,13 @@
         <v>145</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -19111,7 +19114,7 @@
         <v>19</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
@@ -19132,7 +19135,7 @@
         <v>19</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>19</v>
@@ -19141,7 +19144,7 @@
         <v>19</v>
       </c>
       <c r="AP135" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ135" t="s" s="2">
         <v>19</v>
@@ -19149,10 +19152,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19178,14 +19181,14 @@
         <v>111</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>19</v>
@@ -19234,7 +19237,7 @@
         <v>19</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -19255,7 +19258,7 @@
         <v>19</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>19</v>
@@ -19264,7 +19267,7 @@
         <v>19</v>
       </c>
       <c r="AP136" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AQ136" t="s" s="2">
         <v>19</v>
@@ -19272,10 +19275,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19301,14 +19304,14 @@
         <v>145</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>19</v>
@@ -19357,7 +19360,7 @@
         <v>19</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
@@ -19378,7 +19381,7 @@
         <v>19</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>19</v>
@@ -19387,7 +19390,7 @@
         <v>19</v>
       </c>
       <c r="AP137" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AQ137" t="s" s="2">
         <v>19</v>
@@ -19395,10 +19398,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19421,19 +19424,19 @@
         <v>92</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>19</v>
@@ -19482,7 +19485,7 @@
         <v>19</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -19503,7 +19506,7 @@
         <v>19</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>19</v>
@@ -19512,7 +19515,7 @@
         <v>19</v>
       </c>
       <c r="AP138" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ138" t="s" s="2">
         <v>19</v>
@@ -19520,10 +19523,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19549,16 +19552,16 @@
         <v>145</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>19</v>
@@ -19607,7 +19610,7 @@
         <v>19</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -19628,7 +19631,7 @@
         <v>19</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>19</v>
@@ -19637,7 +19640,7 @@
         <v>19</v>
       </c>
       <c r="AP139" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ139" t="s" s="2">
         <v>19</v>
@@ -19645,10 +19648,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19671,13 +19674,13 @@
         <v>19</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -19728,7 +19731,7 @@
         <v>19</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -19746,13 +19749,13 @@
         <v>19</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>19</v>
@@ -19761,15 +19764,15 @@
         <v>19</v>
       </c>
       <c r="AQ140" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19792,16 +19795,16 @@
         <v>19</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -19851,7 +19854,7 @@
         <v>19</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -19869,13 +19872,13 @@
         <v>19</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>19</v>
@@ -19884,7 +19887,7 @@
         <v>19</v>
       </c>
       <c r="AQ141" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>

--- a/ig/conditionlist/StructureDefinition-medcom-conditionlist-documentreference.xlsx
+++ b/ig/conditionlist/StructureDefinition-medcom-conditionlist-documentreference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5536" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5536" uniqueCount="700">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T10:26:02+01:00</t>
+    <t>2025-05-13T06:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -540,13 +540,16 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-homeCommunityId-VS</t>
+    <t>http://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-homeCommunityId-VS</t>
   </si>
   <si>
     <t>DocumentReference.extension.value[x]:valueString</t>
   </si>
   <si>
     <t>valueString</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>DocumentReference.extension:homeCommunityid</t>
@@ -938,7 +941,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>https://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-dk-ihe-plr-typecode-VS</t>
+    <t>http://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-dk-ihe-plr-typecode-VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1803,7 +1806,7 @@
     <t>Note that while IHE mostly issues URNs for format types, not all documents can be identified by a URI.</t>
   </si>
   <si>
-    <t>https://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-plr-formatcode-VS</t>
+    <t>http://medcomfhir.dk/ig/xdsmetadata/ValueSet/MedCom-ihe-plr-formatcode-VS</t>
   </si>
   <si>
     <t>Composition.meta.profile</t>
@@ -2498,15 +2501,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="59.359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.48828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2517,29 +2520,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="90.01953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="43.2890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.69921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.96484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.5859375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="82.05078125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="157.95703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="72.20703125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="139.26953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4304,7 +4307,7 @@
         <v>19</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>19</v>
@@ -4381,13 +4384,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>19</v>
@@ -4406,16 +4409,16 @@
         <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4475,7 +4478,7 @@
         <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>143</v>
@@ -4504,13 +4507,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>19</v>
@@ -4529,16 +4532,16 @@
         <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4598,7 +4601,7 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>143</v>
@@ -4627,14 +4630,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4656,16 +4659,16 @@
         <v>137</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>19</v>
@@ -4714,7 +4717,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4752,10 +4755,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4778,19 +4781,19 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -4839,7 +4842,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4854,33 +4857,33 @@
         <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4998,14 +5001,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -5027,13 +5030,13 @@
         <v>137</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -5121,10 +5124,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5150,16 +5153,16 @@
         <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -5187,10 +5190,10 @@
         <v>167</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>19</v>
@@ -5208,7 +5211,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -5229,7 +5232,7 @@
         <v>19</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>19</v>
@@ -5246,10 +5249,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5272,19 +5275,19 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -5309,13 +5312,13 @@
         <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>19</v>
@@ -5333,7 +5336,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -5354,7 +5357,7 @@
         <v>19</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>19</v>
@@ -5363,7 +5366,7 @@
         <v>19</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>19</v>
@@ -5371,10 +5374,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5400,16 +5403,16 @@
         <v>105</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -5422,7 +5425,7 @@
         <v>19</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>19</v>
@@ -5458,7 +5461,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5479,7 +5482,7 @@
         <v>19</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>19</v>
@@ -5488,7 +5491,7 @@
         <v>19</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AQ24" t="s" s="2">
         <v>19</v>
@@ -5496,10 +5499,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5525,13 +5528,13 @@
         <v>145</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5545,7 +5548,7 @@
         <v>19</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>19</v>
@@ -5581,7 +5584,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5602,7 +5605,7 @@
         <v>19</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>19</v>
@@ -5611,7 +5614,7 @@
         <v>19</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>19</v>
@@ -5619,10 +5622,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5645,13 +5648,13 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5702,7 +5705,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5723,7 +5726,7 @@
         <v>19</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>19</v>
@@ -5732,7 +5735,7 @@
         <v>19</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>19</v>
@@ -5740,10 +5743,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5766,16 +5769,16 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5825,7 +5828,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5846,7 +5849,7 @@
         <v>19</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>19</v>
@@ -5855,7 +5858,7 @@
         <v>19</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>19</v>
@@ -5863,10 +5866,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5889,13 +5892,13 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5946,7 +5949,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5958,36 +5961,36 @@
         <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6105,14 +6108,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -6134,13 +6137,13 @@
         <v>137</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6228,10 +6231,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6257,16 +6260,16 @@
         <v>111</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -6294,10 +6297,10 @@
         <v>167</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>19</v>
@@ -6315,7 +6318,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -6336,7 +6339,7 @@
         <v>19</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>19</v>
@@ -6353,10 +6356,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6379,19 +6382,19 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -6416,13 +6419,13 @@
         <v>19</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>19</v>
@@ -6440,7 +6443,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -6461,7 +6464,7 @@
         <v>19</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>19</v>
@@ -6470,7 +6473,7 @@
         <v>19</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>19</v>
@@ -6478,10 +6481,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6507,16 +6510,16 @@
         <v>105</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -6529,7 +6532,7 @@
         <v>19</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>19</v>
@@ -6565,7 +6568,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6586,7 +6589,7 @@
         <v>19</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>19</v>
@@ -6595,7 +6598,7 @@
         <v>19</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>19</v>
@@ -6603,10 +6606,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6632,13 +6635,13 @@
         <v>145</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6652,7 +6655,7 @@
         <v>19</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>19</v>
@@ -6688,7 +6691,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6709,7 +6712,7 @@
         <v>19</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>19</v>
@@ -6718,7 +6721,7 @@
         <v>19</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>19</v>
@@ -6726,10 +6729,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6752,13 +6755,13 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6809,7 +6812,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6830,7 +6833,7 @@
         <v>19</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>19</v>
@@ -6839,7 +6842,7 @@
         <v>19</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>19</v>
@@ -6847,10 +6850,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6873,16 +6876,16 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6932,7 +6935,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6953,7 +6956,7 @@
         <v>19</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>19</v>
@@ -6962,7 +6965,7 @@
         <v>19</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>19</v>
@@ -6970,10 +6973,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6999,13 +7002,13 @@
         <v>111</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -7034,10 +7037,10 @@
         <v>167</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
@@ -7055,7 +7058,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>91</v>
@@ -7070,33 +7073,33 @@
         <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7122,13 +7125,13 @@
         <v>111</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7157,10 +7160,10 @@
         <v>167</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>19</v>
@@ -7178,7 +7181,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -7196,19 +7199,19 @@
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>19</v>
@@ -7216,10 +7219,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7242,16 +7245,16 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7281,7 +7284,7 @@
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
@@ -7299,7 +7302,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -7314,33 +7317,33 @@
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7458,14 +7461,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7487,13 +7490,13 @@
         <v>137</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7581,10 +7584,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7610,16 +7613,16 @@
         <v>166</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -7668,7 +7671,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7689,7 +7692,7 @@
         <v>19</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>19</v>
@@ -7698,7 +7701,7 @@
         <v>19</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ42" t="s" s="2">
         <v>19</v>
@@ -7706,10 +7709,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7827,14 +7830,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7856,13 +7859,13 @@
         <v>137</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7950,10 +7953,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7979,16 +7982,16 @@
         <v>105</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -8037,7 +8040,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -8058,7 +8061,7 @@
         <v>19</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>19</v>
@@ -8067,7 +8070,7 @@
         <v>19</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>19</v>
@@ -8075,10 +8078,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8104,13 +8107,13 @@
         <v>145</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8160,7 +8163,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -8181,7 +8184,7 @@
         <v>19</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>19</v>
@@ -8190,7 +8193,7 @@
         <v>19</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>19</v>
@@ -8198,10 +8201,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8227,14 +8230,14 @@
         <v>111</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -8283,7 +8286,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -8304,7 +8307,7 @@
         <v>19</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>19</v>
@@ -8313,7 +8316,7 @@
         <v>19</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>19</v>
@@ -8321,10 +8324,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8350,14 +8353,14 @@
         <v>145</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -8406,7 +8409,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -8427,7 +8430,7 @@
         <v>19</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>19</v>
@@ -8436,7 +8439,7 @@
         <v>19</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>19</v>
@@ -8444,10 +8447,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8470,19 +8473,19 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -8531,7 +8534,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8552,7 +8555,7 @@
         <v>19</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>19</v>
@@ -8561,7 +8564,7 @@
         <v>19</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>19</v>
@@ -8569,10 +8572,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8598,16 +8601,16 @@
         <v>145</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -8656,7 +8659,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8677,7 +8680,7 @@
         <v>19</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>19</v>
@@ -8686,7 +8689,7 @@
         <v>19</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>19</v>
@@ -8694,14 +8697,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8720,16 +8723,16 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8755,11 +8758,11 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
@@ -8777,7 +8780,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8795,30 +8798,30 @@
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8936,14 +8939,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8965,13 +8968,13 @@
         <v>137</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -9059,10 +9062,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9088,16 +9091,16 @@
         <v>166</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -9146,7 +9149,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -9167,7 +9170,7 @@
         <v>19</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>19</v>
@@ -9176,7 +9179,7 @@
         <v>19</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>19</v>
@@ -9184,10 +9187,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9305,14 +9308,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9334,13 +9337,13 @@
         <v>137</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9428,10 +9431,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9457,16 +9460,16 @@
         <v>105</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>19</v>
@@ -9515,7 +9518,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9536,7 +9539,7 @@
         <v>19</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>19</v>
@@ -9545,7 +9548,7 @@
         <v>19</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>19</v>
@@ -9553,10 +9556,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9582,13 +9585,13 @@
         <v>145</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9638,7 +9641,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9659,7 +9662,7 @@
         <v>19</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>19</v>
@@ -9668,7 +9671,7 @@
         <v>19</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>19</v>
@@ -9676,10 +9679,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9705,14 +9708,14 @@
         <v>111</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -9761,7 +9764,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9782,7 +9785,7 @@
         <v>19</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>19</v>
@@ -9791,7 +9794,7 @@
         <v>19</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>19</v>
@@ -9799,10 +9802,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9828,14 +9831,14 @@
         <v>145</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -9884,7 +9887,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9905,7 +9908,7 @@
         <v>19</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>19</v>
@@ -9914,7 +9917,7 @@
         <v>19</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>19</v>
@@ -9922,10 +9925,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9948,19 +9951,19 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -10009,7 +10012,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -10030,7 +10033,7 @@
         <v>19</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>19</v>
@@ -10039,7 +10042,7 @@
         <v>19</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>19</v>
@@ -10047,10 +10050,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10076,16 +10079,16 @@
         <v>145</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>19</v>
@@ -10134,7 +10137,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -10155,7 +10158,7 @@
         <v>19</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>19</v>
@@ -10164,7 +10167,7 @@
         <v>19</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>19</v>
@@ -10172,10 +10175,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10198,13 +10201,13 @@
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10255,7 +10258,7 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -10270,37 +10273,37 @@
         <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10319,16 +10322,16 @@
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10378,7 +10381,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -10393,19 +10396,19 @@
         <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>19</v>
@@ -10416,10 +10419,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10442,16 +10445,16 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10489,17 +10492,17 @@
         <v>19</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -10514,36 +10517,36 @@
         <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AQ65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>19</v>
@@ -10565,16 +10568,16 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10624,7 +10627,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10639,36 +10642,36 @@
         <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AQ66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>19</v>
@@ -10690,16 +10693,16 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10749,7 +10752,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10764,33 +10767,33 @@
         <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10813,16 +10816,16 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10872,7 +10875,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10887,33 +10890,33 @@
         <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AQ68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10936,16 +10939,16 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10995,7 +10998,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -11010,13 +11013,13 @@
         <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>19</v>
@@ -11033,10 +11036,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11059,16 +11062,16 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11118,7 +11121,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -11136,10 +11139,10 @@
         <v>19</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>19</v>
@@ -11151,15 +11154,15 @@
         <v>19</v>
       </c>
       <c r="AQ70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11277,14 +11280,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -11306,13 +11309,13 @@
         <v>137</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11400,14 +11403,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11429,16 +11432,16 @@
         <v>137</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>19</v>
@@ -11487,7 +11490,7 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -11525,10 +11528,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11554,13 +11557,13 @@
         <v>111</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11589,10 +11592,10 @@
         <v>167</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>19</v>
@@ -11610,7 +11613,7 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>91</v>
@@ -11628,10 +11631,10 @@
         <v>19</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>19</v>
@@ -11643,15 +11646,15 @@
         <v>19</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11674,13 +11677,13 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11731,7 +11734,7 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>91</v>
@@ -11749,10 +11752,10 @@
         <v>19</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>19</v>
@@ -11764,15 +11767,15 @@
         <v>19</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11798,16 +11801,16 @@
         <v>145</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>19</v>
@@ -11856,7 +11859,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11877,7 +11880,7 @@
         <v>19</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>19</v>
@@ -11886,18 +11889,18 @@
         <v>19</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AQ76" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11920,19 +11923,19 @@
         <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>19</v>
@@ -11957,13 +11960,13 @@
         <v>19</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>19</v>
@@ -11981,7 +11984,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11999,30 +12002,30 @@
         <v>19</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AQ77" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12045,13 +12048,13 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -12102,7 +12105,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>91</v>
@@ -12120,10 +12123,10 @@
         <v>19</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>19</v>
@@ -12140,10 +12143,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12261,14 +12264,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12290,13 +12293,13 @@
         <v>137</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12384,14 +12387,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12413,16 +12416,16 @@
         <v>137</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>19</v>
@@ -12471,7 +12474,7 @@
         <v>19</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -12509,10 +12512,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12535,13 +12538,13 @@
         <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12592,7 +12595,7 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>91</v>
@@ -12610,30 +12613,30 @@
         <v>19</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AQ82" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12751,14 +12754,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12780,13 +12783,13 @@
         <v>137</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12874,10 +12877,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12903,14 +12906,14 @@
         <v>111</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>19</v>
@@ -12923,7 +12926,7 @@
         <v>19</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>19</v>
@@ -12939,7 +12942,7 @@
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>19</v>
@@ -12957,7 +12960,7 @@
         <v>19</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12978,7 +12981,7 @@
         <v>19</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>19</v>
@@ -12987,7 +12990,7 @@
         <v>19</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AQ85" t="s" s="2">
         <v>19</v>
@@ -12995,10 +12998,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13024,14 +13027,14 @@
         <v>111</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>19</v>
@@ -13044,7 +13047,7 @@
         <v>19</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>19</v>
@@ -13056,11 +13059,11 @@
         <v>19</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>19</v>
@@ -13078,7 +13081,7 @@
         <v>19</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -13099,7 +13102,7 @@
         <v>19</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>19</v>
@@ -13116,10 +13119,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13142,19 +13145,19 @@
         <v>19</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>19</v>
@@ -13203,7 +13206,7 @@
         <v>19</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -13224,7 +13227,7 @@
         <v>19</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>19</v>
@@ -13233,7 +13236,7 @@
         <v>19</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AQ87" t="s" s="2">
         <v>19</v>
@@ -13241,10 +13244,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13267,19 +13270,19 @@
         <v>92</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>19</v>
@@ -13292,7 +13295,7 @@
         <v>19</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>19</v>
@@ -13328,7 +13331,7 @@
         <v>19</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -13349,7 +13352,7 @@
         <v>19</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>19</v>
@@ -13358,7 +13361,7 @@
         <v>19</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AQ88" t="s" s="2">
         <v>19</v>
@@ -13366,10 +13369,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13392,19 +13395,19 @@
         <v>92</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>19</v>
@@ -13453,7 +13456,7 @@
         <v>19</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -13474,7 +13477,7 @@
         <v>19</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>19</v>
@@ -13491,10 +13494,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13517,19 +13520,19 @@
         <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>19</v>
@@ -13578,7 +13581,7 @@
         <v>19</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -13599,7 +13602,7 @@
         <v>19</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>19</v>
@@ -13616,10 +13619,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13645,14 +13648,14 @@
         <v>145</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>19</v>
@@ -13665,7 +13668,7 @@
         <v>19</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>19</v>
@@ -13701,7 +13704,7 @@
         <v>19</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13722,7 +13725,7 @@
         <v>19</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>19</v>
@@ -13739,10 +13742,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13765,17 +13768,17 @@
         <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>19</v>
@@ -13824,7 +13827,7 @@
         <v>19</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13845,7 +13848,7 @@
         <v>19</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>19</v>
@@ -13862,10 +13865,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13891,13 +13894,13 @@
         <v>166</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13927,7 +13930,7 @@
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>19</v>
@@ -13945,7 +13948,7 @@
         <v>19</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13963,13 +13966,13 @@
         <v>19</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>19</v>
@@ -13978,15 +13981,15 @@
         <v>19</v>
       </c>
       <c r="AQ93" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14009,16 +14012,16 @@
         <v>92</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -14068,7 +14071,7 @@
         <v>19</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -14089,7 +14092,7 @@
         <v>19</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>19</v>
@@ -14106,10 +14109,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14227,14 +14230,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -14256,13 +14259,13 @@
         <v>137</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -14350,14 +14353,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14379,16 +14382,16 @@
         <v>137</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>19</v>
@@ -14437,7 +14440,7 @@
         <v>19</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -14475,10 +14478,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14501,13 +14504,13 @@
         <v>19</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14558,7 +14561,7 @@
         <v>19</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -14573,19 +14576,19 @@
         <v>103</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>19</v>
@@ -14596,10 +14599,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14622,16 +14625,16 @@
         <v>19</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14657,13 +14660,13 @@
         <v>19</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>19</v>
@@ -14681,7 +14684,7 @@
         <v>19</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14699,10 +14702,10 @@
         <v>19</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>19</v>
@@ -14714,15 +14717,15 @@
         <v>19</v>
       </c>
       <c r="AQ99" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14840,14 +14843,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14869,13 +14872,13 @@
         <v>137</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14963,10 +14966,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14992,16 +14995,16 @@
         <v>166</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>19</v>
@@ -15050,7 +15053,7 @@
         <v>19</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -15071,7 +15074,7 @@
         <v>19</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>19</v>
@@ -15080,7 +15083,7 @@
         <v>19</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ102" t="s" s="2">
         <v>19</v>
@@ -15088,10 +15091,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15209,14 +15212,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15238,13 +15241,13 @@
         <v>137</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15332,10 +15335,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15361,16 +15364,16 @@
         <v>105</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>19</v>
@@ -15419,7 +15422,7 @@
         <v>19</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -15440,7 +15443,7 @@
         <v>19</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>19</v>
@@ -15449,7 +15452,7 @@
         <v>19</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ105" t="s" s="2">
         <v>19</v>
@@ -15457,10 +15460,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15486,13 +15489,13 @@
         <v>145</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15542,7 +15545,7 @@
         <v>19</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -15563,7 +15566,7 @@
         <v>19</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>19</v>
@@ -15572,7 +15575,7 @@
         <v>19</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ106" t="s" s="2">
         <v>19</v>
@@ -15580,10 +15583,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15609,14 +15612,14 @@
         <v>111</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>19</v>
@@ -15665,7 +15668,7 @@
         <v>19</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -15686,7 +15689,7 @@
         <v>19</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>19</v>
@@ -15695,7 +15698,7 @@
         <v>19</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AQ107" t="s" s="2">
         <v>19</v>
@@ -15703,10 +15706,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15732,14 +15735,14 @@
         <v>145</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>19</v>
@@ -15788,7 +15791,7 @@
         <v>19</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -15809,7 +15812,7 @@
         <v>19</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>19</v>
@@ -15818,7 +15821,7 @@
         <v>19</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AQ108" t="s" s="2">
         <v>19</v>
@@ -15826,10 +15829,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15852,19 +15855,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>19</v>
@@ -15913,7 +15916,7 @@
         <v>19</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15934,7 +15937,7 @@
         <v>19</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>19</v>
@@ -15943,7 +15946,7 @@
         <v>19</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ109" t="s" s="2">
         <v>19</v>
@@ -15951,10 +15954,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15980,16 +15983,16 @@
         <v>145</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>19</v>
@@ -16038,7 +16041,7 @@
         <v>19</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -16059,7 +16062,7 @@
         <v>19</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>19</v>
@@ -16068,7 +16071,7 @@
         <v>19</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ110" t="s" s="2">
         <v>19</v>
@@ -16076,10 +16079,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16102,13 +16105,13 @@
         <v>92</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -16159,7 +16162,7 @@
         <v>19</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -16177,13 +16180,13 @@
         <v>19</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>19</v>
@@ -16192,15 +16195,15 @@
         <v>19</v>
       </c>
       <c r="AQ111" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16318,14 +16321,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16347,13 +16350,13 @@
         <v>137</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16441,10 +16444,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16467,16 +16470,16 @@
         <v>92</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16526,7 +16529,7 @@
         <v>19</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -16535,7 +16538,7 @@
         <v>91</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>103</v>
@@ -16547,7 +16550,7 @@
         <v>19</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>19</v>
@@ -16556,7 +16559,7 @@
         <v>19</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AQ114" t="s" s="2">
         <v>19</v>
@@ -16564,10 +16567,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16590,23 +16593,23 @@
         <v>92</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q115" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="R115" t="s" s="2">
         <v>19</v>
@@ -16651,7 +16654,7 @@
         <v>19</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -16660,7 +16663,7 @@
         <v>91</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>103</v>
@@ -16672,7 +16675,7 @@
         <v>19</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>19</v>
@@ -16681,7 +16684,7 @@
         <v>19</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AQ115" t="s" s="2">
         <v>19</v>
@@ -16689,10 +16692,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16715,13 +16718,13 @@
         <v>19</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -16748,13 +16751,13 @@
         <v>19</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>19</v>
@@ -16772,7 +16775,7 @@
         <v>19</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -16790,13 +16793,13 @@
         <v>19</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>19</v>
@@ -16805,15 +16808,15 @@
         <v>19</v>
       </c>
       <c r="AQ116" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16931,14 +16934,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16960,13 +16963,13 @@
         <v>137</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -17054,10 +17057,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17083,16 +17086,16 @@
         <v>166</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>19</v>
@@ -17141,7 +17144,7 @@
         <v>19</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -17162,7 +17165,7 @@
         <v>19</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>19</v>
@@ -17171,7 +17174,7 @@
         <v>19</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ119" t="s" s="2">
         <v>19</v>
@@ -17179,10 +17182,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17300,14 +17303,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -17329,13 +17332,13 @@
         <v>137</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17423,10 +17426,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17452,16 +17455,16 @@
         <v>105</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>19</v>
@@ -17486,11 +17489,11 @@
         <v>19</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y122" s="2"/>
       <c r="Z122" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>19</v>
@@ -17508,7 +17511,7 @@
         <v>19</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -17529,7 +17532,7 @@
         <v>19</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>19</v>
@@ -17538,7 +17541,7 @@
         <v>19</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ122" t="s" s="2">
         <v>19</v>
@@ -17546,10 +17549,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17575,13 +17578,13 @@
         <v>145</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17631,7 +17634,7 @@
         <v>19</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -17652,7 +17655,7 @@
         <v>19</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>19</v>
@@ -17661,7 +17664,7 @@
         <v>19</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ123" t="s" s="2">
         <v>19</v>
@@ -17669,10 +17672,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17698,14 +17701,14 @@
         <v>111</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>19</v>
@@ -17754,7 +17757,7 @@
         <v>19</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -17775,7 +17778,7 @@
         <v>19</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>19</v>
@@ -17784,7 +17787,7 @@
         <v>19</v>
       </c>
       <c r="AP124" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AQ124" t="s" s="2">
         <v>19</v>
@@ -17792,10 +17795,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17821,14 +17824,14 @@
         <v>145</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>19</v>
@@ -17877,7 +17880,7 @@
         <v>19</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -17898,7 +17901,7 @@
         <v>19</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>19</v>
@@ -17907,7 +17910,7 @@
         <v>19</v>
       </c>
       <c r="AP125" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AQ125" t="s" s="2">
         <v>19</v>
@@ -17915,10 +17918,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17941,19 +17944,19 @@
         <v>92</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>19</v>
@@ -18002,7 +18005,7 @@
         <v>19</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -18023,7 +18026,7 @@
         <v>19</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>19</v>
@@ -18032,7 +18035,7 @@
         <v>19</v>
       </c>
       <c r="AP126" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ126" t="s" s="2">
         <v>19</v>
@@ -18040,10 +18043,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18069,16 +18072,16 @@
         <v>145</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>19</v>
@@ -18127,7 +18130,7 @@
         <v>19</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
@@ -18148,7 +18151,7 @@
         <v>19</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>19</v>
@@ -18157,7 +18160,7 @@
         <v>19</v>
       </c>
       <c r="AP127" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ127" t="s" s="2">
         <v>19</v>
@@ -18165,10 +18168,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18191,19 +18194,19 @@
         <v>19</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>19</v>
@@ -18228,13 +18231,13 @@
         <v>19</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>19</v>
@@ -18252,7 +18255,7 @@
         <v>19</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -18270,14 +18273,14 @@
         <v>19</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AM128" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AN128" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AN128" t="s" s="2">
-        <v>649</v>
-      </c>
       <c r="AO128" t="s" s="2">
         <v>19</v>
       </c>
@@ -18285,15 +18288,15 @@
         <v>19</v>
       </c>
       <c r="AQ128" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18411,14 +18414,14 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -18440,13 +18443,13 @@
         <v>137</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -18534,10 +18537,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18563,16 +18566,16 @@
         <v>166</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>19</v>
@@ -18621,7 +18624,7 @@
         <v>19</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -18642,7 +18645,7 @@
         <v>19</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>19</v>
@@ -18651,7 +18654,7 @@
         <v>19</v>
       </c>
       <c r="AP131" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ131" t="s" s="2">
         <v>19</v>
@@ -18659,10 +18662,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18780,14 +18783,14 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -18809,13 +18812,13 @@
         <v>137</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18903,10 +18906,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18932,16 +18935,16 @@
         <v>105</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>19</v>
@@ -18966,11 +18969,11 @@
         <v>19</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y134" s="2"/>
       <c r="Z134" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>19</v>
@@ -18988,7 +18991,7 @@
         <v>19</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -19009,7 +19012,7 @@
         <v>19</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>19</v>
@@ -19018,7 +19021,7 @@
         <v>19</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ134" t="s" s="2">
         <v>19</v>
@@ -19026,10 +19029,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19055,13 +19058,13 @@
         <v>145</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -19111,7 +19114,7 @@
         <v>19</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
@@ -19132,7 +19135,7 @@
         <v>19</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>19</v>
@@ -19141,7 +19144,7 @@
         <v>19</v>
       </c>
       <c r="AP135" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ135" t="s" s="2">
         <v>19</v>
@@ -19149,10 +19152,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19178,14 +19181,14 @@
         <v>111</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>19</v>
@@ -19234,7 +19237,7 @@
         <v>19</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -19255,7 +19258,7 @@
         <v>19</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>19</v>
@@ -19264,7 +19267,7 @@
         <v>19</v>
       </c>
       <c r="AP136" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AQ136" t="s" s="2">
         <v>19</v>
@@ -19272,10 +19275,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19301,14 +19304,14 @@
         <v>145</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>19</v>
@@ -19357,7 +19360,7 @@
         <v>19</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
@@ -19378,7 +19381,7 @@
         <v>19</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>19</v>
@@ -19387,7 +19390,7 @@
         <v>19</v>
       </c>
       <c r="AP137" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AQ137" t="s" s="2">
         <v>19</v>
@@ -19395,10 +19398,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19421,19 +19424,19 @@
         <v>92</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>19</v>
@@ -19482,7 +19485,7 @@
         <v>19</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -19503,7 +19506,7 @@
         <v>19</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>19</v>
@@ -19512,7 +19515,7 @@
         <v>19</v>
       </c>
       <c r="AP138" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ138" t="s" s="2">
         <v>19</v>
@@ -19520,10 +19523,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19549,16 +19552,16 @@
         <v>145</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>19</v>
@@ -19607,7 +19610,7 @@
         <v>19</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -19628,7 +19631,7 @@
         <v>19</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>19</v>
@@ -19637,7 +19640,7 @@
         <v>19</v>
       </c>
       <c r="AP139" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AQ139" t="s" s="2">
         <v>19</v>
@@ -19645,10 +19648,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19671,13 +19674,13 @@
         <v>19</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -19728,7 +19731,7 @@
         <v>19</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -19746,13 +19749,13 @@
         <v>19</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>19</v>
@@ -19761,15 +19764,15 @@
         <v>19</v>
       </c>
       <c r="AQ140" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19792,16 +19795,16 @@
         <v>19</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -19851,7 +19854,7 @@
         <v>19</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -19869,13 +19872,13 @@
         <v>19</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>19</v>
@@ -19884,7 +19887,7 @@
         <v>19</v>
       </c>
       <c r="AQ141" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
